--- a/src/shed.xlsx
+++ b/src/shed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
   <si>
     <t xml:space="preserve">понедельник</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">вторник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физкультура</t>
   </si>
   <si>
     <t xml:space="preserve">ФИЗ-РА</t>
@@ -141,14 +144,14 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="28"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="28"/>
+      <sz val="10"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
       <charset val="204"/>
@@ -307,17 +310,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,43 +372,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,11 +392,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,11 +404,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,7 +416,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Обычный 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -458,14 +429,14 @@
   <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.04858299595142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.04858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.5546558704453"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.66801619433198"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -836,13 +807,13 @@
       <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -870,13 +841,13 @@
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -900,13 +871,13 @@
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -936,9 +907,9 @@
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -968,17 +939,17 @@
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>433</v>
@@ -1004,9 +975,9 @@
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1036,17 +1007,17 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>433</v>
@@ -1072,13 +1043,13 @@
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>433</v>
@@ -1104,13 +1075,13 @@
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="5"/>
@@ -1136,9 +1107,9 @@
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="5"/>
@@ -1164,13 +1135,13 @@
     </row>
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="5"/>
@@ -1196,9 +1167,9 @@
     </row>
     <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="5"/>
@@ -1223,20 +1194,20 @@
       <c r="X24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>410</v>
@@ -1261,10 +1232,10 @@
       <c r="X25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="5"/>
@@ -1289,18 +1260,18 @@
       <c r="X26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>433</v>
@@ -1325,14 +1296,14 @@
       <c r="X27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>433</v>
@@ -1357,14 +1328,14 @@
       <c r="X28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="5"/>
@@ -1389,10 +1360,10 @@
       <c r="X29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="5"/>
@@ -1417,14 +1388,14 @@
       <c r="X30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="5"/>
@@ -1449,10 +1420,10 @@
       <c r="X31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="5"/>
@@ -1477,14 +1448,14 @@
       <c r="X32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="5"/>
@@ -1509,10 +1480,10 @@
       <c r="X33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="5"/>
@@ -1537,14 +1508,14 @@
       <c r="X34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="5"/>
@@ -1569,10 +1540,10 @@
       <c r="X35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="5"/>
@@ -1597,12 +1568,12 @@
       <c r="X36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="26"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="19"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -1625,8 +1596,8 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="s">
-        <v>24</v>
+      <c r="A38" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1638,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>450</v>
@@ -1663,7 +1634,7 @@
       <c r="X38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="6" t="s">
@@ -1691,7 +1662,7 @@
       <c r="X39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>450</v>
@@ -1727,14 +1698,14 @@
       <c r="X40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>410</v>
@@ -1759,7 +1730,7 @@
       <c r="X41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="7" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +1741,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>433</v>
@@ -1795,14 +1766,14 @@
       <c r="X42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>433</v>
@@ -1827,7 +1798,7 @@
       <c r="X43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="7" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1809,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1861,14 +1832,14 @@
       <c r="X44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1891,7 +1862,7 @@
       <c r="X45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="7" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1894,7 @@
       <c r="X46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6" t="s">
@@ -1951,7 +1922,7 @@
       <c r="X47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
@@ -1983,7 +1954,7 @@
       <c r="X48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
       <c r="D49" s="13" t="s">
@@ -2011,8 +1982,8 @@
       <c r="X49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30" t="s">
-        <v>27</v>
+      <c r="A50" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -2024,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>410</v>
@@ -2049,14 +2020,14 @@
       <c r="X50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="30"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>435</v>
@@ -2081,7 +2052,7 @@
       <c r="X51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2117,7 +2088,7 @@
       <c r="X52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="6" t="s">
@@ -2149,7 +2120,7 @@
       <c r="X53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2156,7 @@
       <c r="X54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="6" t="s">
@@ -2213,7 +2184,7 @@
       <c r="X55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="30"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="7" t="s">
         <v>11</v>
       </c>
@@ -2245,7 +2216,7 @@
       <c r="X56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="6" t="s">
@@ -2273,7 +2244,7 @@
       <c r="X57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="7" t="s">
         <v>14</v>
       </c>
@@ -2305,7 +2276,7 @@
       <c r="X58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="30"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="6" t="s">
@@ -2333,7 +2304,7 @@
       <c r="X59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2365,7 +2336,7 @@
       <c r="X60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
       <c r="D61" s="13" t="s">

--- a/src/shed.xlsx
+++ b/src/shed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
   <si>
     <t xml:space="preserve">понедельник</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">10.45 12.15</t>
   </si>
   <si>
-    <t xml:space="preserve">ФОЗИ - ст пр Шахайда В.М</t>
+    <t xml:space="preserve">ФОЗИ — Шахайда В.М</t>
   </si>
   <si>
     <t xml:space="preserve">3пара</t>
@@ -52,7 +52,10 @@
     <t xml:space="preserve">12.30 14.00</t>
   </si>
   <si>
-    <t xml:space="preserve">ПАСЗИ - ст пр  Артёменко М.А</t>
+    <t xml:space="preserve">ПАСЗИ — Артёменко М.А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПАСЗИ —  Артёменко М.А</t>
   </si>
   <si>
     <t xml:space="preserve">4пара</t>
@@ -85,13 +88,16 @@
     <t xml:space="preserve">ФИЗ-РА</t>
   </si>
   <si>
-    <t xml:space="preserve">КСЗИ - ст пр Шахайда В.М</t>
+    <t xml:space="preserve">ММИО — Маслова М.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КСЗИ — Шахайда В.М</t>
   </si>
   <si>
     <t xml:space="preserve">среда</t>
   </si>
   <si>
-    <t xml:space="preserve">КРиСППШ - ст пр Репин А.В</t>
+    <t xml:space="preserve">КРиСППШ — Репин А.В</t>
   </si>
   <si>
     <t xml:space="preserve">Время</t>
@@ -100,16 +106,16 @@
     <t xml:space="preserve">четверг</t>
   </si>
   <si>
-    <t xml:space="preserve">Правоведение -доц Белоглазов Р.Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОиПОвИБ - пр Калита А.О.</t>
+    <t xml:space="preserve">Правоведение — Белоглазов Р.Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОиПОвИБ — Калита А.О.</t>
   </si>
   <si>
     <t xml:space="preserve">пятница</t>
   </si>
   <si>
-    <t xml:space="preserve">ОИБ - Доцент Дегтярёв А.Н</t>
+    <t xml:space="preserve">ОИБ — Дегтярёв А.Н</t>
   </si>
 </sst>
 </file>
@@ -429,14 +435,14 @@
   <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.5546558704453"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3846153846154"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -595,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>433</v>
@@ -622,16 +628,16 @@
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>433</v>
@@ -686,10 +692,10 @@
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>3</v>
@@ -746,10 +752,10 @@
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>3</v>
@@ -805,7 +811,7 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -817,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -847,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -881,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>401</v>
@@ -913,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>410</v>
@@ -949,7 +955,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>433</v>
@@ -1008,16 +1014,16 @@
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
       <c r="B19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>433</v>
@@ -1049,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>433</v>
@@ -1076,10 +1082,10 @@
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
       <c r="B21" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>3</v>
@@ -1136,10 +1142,10 @@
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
       <c r="B23" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>3</v>
@@ -1195,7 +1201,7 @@
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -1207,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>410</v>
@@ -1271,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>433</v>
@@ -1303,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>433</v>
@@ -1390,10 +1396,10 @@
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>3</v>
@@ -1450,10 +1456,10 @@
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>3</v>
@@ -1510,10 +1516,10 @@
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
       <c r="B35" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>3</v>
@@ -1571,7 +1577,7 @@
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="5"/>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>1</v>
@@ -1609,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>450</v>
@@ -1673,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>450</v>
@@ -1705,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>410</v>
@@ -1741,7 +1747,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>433</v>
@@ -1773,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F43" s="5" t="n">
         <v>433</v>
@@ -1800,16 +1806,16 @@
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="22"/>
       <c r="B44" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1839,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -1864,10 +1870,10 @@
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="22"/>
       <c r="B46" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>3</v>
@@ -1924,10 +1930,10 @@
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="22"/>
       <c r="B48" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>3</v>
@@ -1983,7 +1989,7 @@
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>1</v>
@@ -1995,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F50" s="5" t="n">
         <v>410</v>
@@ -2027,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F51" s="5" t="n">
         <v>435</v>
@@ -2186,10 +2192,10 @@
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14"/>
       <c r="B56" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>3</v>
@@ -2246,10 +2252,10 @@
     <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="14"/>
       <c r="B58" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>3</v>
@@ -2306,10 +2312,10 @@
     <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14"/>
       <c r="B60" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>3</v>

--- a/src/shed.xlsx
+++ b/src/shed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
   <si>
     <t xml:space="preserve">понедельник</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">10.45 12.15</t>
   </si>
   <si>
-    <t xml:space="preserve">ФОЗИ — Шахайда В.М</t>
+    <t xml:space="preserve">ФОЗИ - Шахайда В.М.</t>
   </si>
   <si>
     <t xml:space="preserve">3пара</t>
@@ -52,10 +52,7 @@
     <t xml:space="preserve">12.30 14.00</t>
   </si>
   <si>
-    <t xml:space="preserve">ПАСЗИ — Артёменко М.А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПАСЗИ —  Артёменко М.А</t>
+    <t xml:space="preserve">ПАСЗИ - Артёменко М.А.</t>
   </si>
   <si>
     <t xml:space="preserve">4пара</t>
@@ -82,40 +79,31 @@
     <t xml:space="preserve">вторник</t>
   </si>
   <si>
-    <t xml:space="preserve">Физкультура</t>
-  </si>
-  <si>
     <t xml:space="preserve">ФИЗ-РА</t>
   </si>
   <si>
-    <t xml:space="preserve">ММИО — Маслова М.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КСЗИ — Шахайда В.М</t>
+    <t xml:space="preserve">КСЗИ - Шахайда В.М.</t>
   </si>
   <si>
     <t xml:space="preserve">среда</t>
   </si>
   <si>
-    <t xml:space="preserve">КРиСППШ — Репин А.В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Время</t>
+    <t xml:space="preserve">КРиСППШ - Репин А.В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОиПОвИБ - Калита А.О.</t>
   </si>
   <si>
     <t xml:space="preserve">четверг</t>
   </si>
   <si>
-    <t xml:space="preserve">Правоведение — Белоглазов Р.Н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОиПОвИБ — Калита А.О.</t>
+    <t xml:space="preserve">Правоведение - Белоглазов Р.Н.</t>
   </si>
   <si>
     <t xml:space="preserve">пятница</t>
   </si>
   <si>
-    <t xml:space="preserve">ОИБ — Дегтярёв А.Н</t>
+    <t xml:space="preserve">ОИБ - Дегтярёв А.Н</t>
   </si>
 </sst>
 </file>
@@ -126,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,13 +164,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -278,13 +259,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top/>
@@ -321,7 +295,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,19 +372,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,17 +394,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E49" activeCellId="0" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1052631578947"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -601,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>433</v>
@@ -628,16 +590,16 @@
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>433</v>
@@ -692,10 +654,10 @@
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>3</v>
@@ -752,10 +714,10 @@
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>3</v>
@@ -811,7 +773,7 @@
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
@@ -823,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -853,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -887,7 +849,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>401</v>
@@ -919,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>410</v>
@@ -955,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>433</v>
@@ -1014,16 +976,16 @@
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
       <c r="B19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>433</v>
@@ -1055,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>433</v>
@@ -1082,10 +1044,10 @@
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14"/>
       <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>3</v>
@@ -1142,10 +1104,10 @@
     <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
       <c r="B23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>3</v>
@@ -1201,7 +1163,7 @@
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
@@ -1213,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>410</v>
@@ -1244,7 +1206,9 @@
       <c r="D26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1277,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>433</v>
@@ -1309,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>433</v>
@@ -1396,10 +1360,10 @@
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
       <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>3</v>
@@ -1456,10 +1420,10 @@
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
       <c r="B33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>3</v>
@@ -1516,10 +1480,10 @@
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
       <c r="B35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>3</v>
@@ -1573,15 +1537,25 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+    <row r="37" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>450</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1602,24 +1576,14 @@
       <c r="X37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="5" t="n">
-        <v>450</v>
-      </c>
+      <c r="A38" s="19"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1639,15 +1603,23 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+    <row r="39" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19"/>
+      <c r="B39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>450</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1668,21 +1640,17 @@
       <c r="X39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>3</v>
+      <c r="A40" s="19"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1703,18 +1671,22 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="6" t="s">
-        <v>4</v>
+    <row r="41" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19"/>
+      <c r="B41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1736,18 +1708,14 @@
       <c r="X41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22"/>
-      <c r="B42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>3</v>
+      <c r="A42" s="19"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>433</v>
@@ -1771,19 +1739,21 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="6" t="s">
-        <v>4</v>
+    <row r="43" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19"/>
+      <c r="B43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>433</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -1804,18 +1774,14 @@
       <c r="X43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22"/>
-      <c r="B44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>3</v>
+      <c r="A44" s="19"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -1837,16 +1803,18 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>21</v>
-      </c>
+    <row r="45" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19"/>
+      <c r="B45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -1868,15 +1836,11 @@
       <c r="X45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>3</v>
+      <c r="A46" s="19"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1899,12 +1863,16 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6" t="s">
-        <v>4</v>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19"/>
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -1928,15 +1896,11 @@
       <c r="X47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22"/>
-      <c r="B48" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>3</v>
+      <c r="A48" s="19"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -1959,15 +1923,25 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>410</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -1988,23 +1962,17 @@
       <c r="X49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>3</v>
+      <c r="A50" s="14"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2025,18 +1993,22 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="14"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="6" t="s">
-        <v>4</v>
+      <c r="B51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2059,14 +2031,10 @@
     </row>
     <row r="52" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="14"/>
-      <c r="B52" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>3</v>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>7</v>
@@ -2093,18 +2061,22 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="14"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6" t="s">
-        <v>4</v>
+      <c r="B53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -2127,21 +2099,13 @@
     </row>
     <row r="54" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="14"/>
-      <c r="B54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="5" t="n">
-        <v>410</v>
-      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -2161,12 +2125,16 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="14"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="6" t="s">
-        <v>4</v>
+      <c r="B55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -2191,14 +2159,10 @@
     </row>
     <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="14"/>
-      <c r="B56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>3</v>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2221,12 +2185,16 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="14"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="6" t="s">
-        <v>4</v>
+      <c r="B57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2251,14 +2219,10 @@
     </row>
     <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="14"/>
-      <c r="B58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>3</v>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2281,12 +2245,16 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="14"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="6" t="s">
-        <v>4</v>
+      <c r="B59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -2311,14 +2279,10 @@
     </row>
     <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="14"/>
-      <c r="B60" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>3</v>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2340,34 +2304,6 @@
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
-    </row>
-    <row r="61" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -2410,32 +2346,32 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A50:A61"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A37:A48"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A49:A60"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
